--- a/MentorOnDemand_CaseStudy/CTS_Mentor_On_Demand.xlsx
+++ b/MentorOnDemand_CaseStudy/CTS_Mentor_On_Demand.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>Total Duration:60 Hrs</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>status(1-created, 2-proposed, 3-approved, 4-finalized, 5-Inprogress, 6-Completed), progress, rating, start_date, end_date, maybe start_time, end_time, amount_received</t>
+  </si>
+  <si>
+    <t>training_id, user_id</t>
   </si>
 </sst>
 </file>
@@ -9334,8 +9337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -9935,7 +9938,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>95</v>
@@ -9951,7 +9954,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>98</v>
@@ -9965,7 +9968,7 @@
         <v>99</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>100</v>
